--- a/macbook-flo/homeassistant/src/main/resources/Network.xlsx
+++ b/macbook-flo/homeassistant/src/main/resources/Network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graham/Code/asystem/macbook-flo/homeassistant/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269CCB8-1D32-FB47-9B78-B61E8A21E686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEB4BE5-27E5-F84E-95E4-F6C6DFAD4D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="4820" windowWidth="51200" windowHeight="26780" xr2:uid="{55D9F53A-BBD5-1941-99D8-BFD082BBD1A3}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:C37"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,10 +1125,10 @@
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="str">
@@ -1154,10 +1154,10 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D13" t="str">
@@ -1183,10 +1183,10 @@
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="str">
@@ -1212,10 +1212,10 @@
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="str">
@@ -1265,10 +1265,10 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="str">
